--- a/tables/coursGBP_RUB__JPY_RUB.xlsx
+++ b/tables/coursGBP_RUB__JPY_RUB.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -498,11 +498,11 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>114.9428</v>
+        <v>115.537</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-02-29</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -511,16 +511,16 @@
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.6032</v>
+        <v>0.60727</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>190.5550397877984</v>
+        <v>190.2563933670361</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -529,11 +529,11 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>115.537</v>
+        <v>115.5803</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-03-04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0.60727</v>
+        <v>0.60894</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>190.2563933670361</v>
+        <v>189.8057279863369</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -560,11 +560,11 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>115.5803</v>
+        <v>115.7555</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0.60894</v>
+        <v>0.60624</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>189.8057279863369</v>
+        <v>190.940056743204</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -591,11 +591,11 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>115.7555</v>
+        <v>115.0224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -604,16 +604,16 @@
         </is>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.60624</v>
+        <v>0.60232</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>190.940056743204</v>
+        <v>190.9655996812326</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -622,11 +622,11 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>115.0224</v>
+        <v>115.6418</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-03-06</t>
+          <t>2024-03-07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -635,16 +635,16 @@
         </is>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.60232</v>
+        <v>0.60934</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>190.9655996812326</v>
+        <v>189.7820592772508</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -653,11 +653,11 @@
         </is>
       </c>
       <c r="C7" s="2" t="n">
-        <v>115.6418</v>
+        <v>116.7343</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-03-07</t>
+          <t>2024-03-11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -666,16 +666,16 @@
         </is>
       </c>
       <c r="F7" s="2" t="n">
-        <v>0.60934</v>
+        <v>0.61755</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>189.7820592772508</v>
+        <v>189.0280948911019</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -684,11 +684,11 @@
         </is>
       </c>
       <c r="C8" s="2" t="n">
-        <v>116.7343</v>
+        <v>116.3741</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-03-11</t>
+          <t>2024-03-12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -697,16 +697,16 @@
         </is>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0.61755</v>
+        <v>0.61888</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>189.0280948911019</v>
+        <v>188.0398461737332</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -715,11 +715,11 @@
         </is>
       </c>
       <c r="C9" s="2" t="n">
-        <v>116.3741</v>
+        <v>117.031</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-03-13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -728,16 +728,16 @@
         </is>
       </c>
       <c r="F9" s="2" t="n">
-        <v>0.61888</v>
+        <v>0.62077</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>188.0398461737332</v>
+        <v>188.5255408605442</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -746,11 +746,11 @@
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>117.031</v>
+        <v>117.2665</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-03-14</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -759,16 +759,16 @@
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0.62077</v>
+        <v>0.6208</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>188.5255408605442</v>
+        <v>188.8957796391752</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>117.2665</v>
+        <v>117.1067</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -790,16 +790,16 @@
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.6208</v>
+        <v>0.61874</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>188.8957796391752</v>
+        <v>189.2664123864628</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -808,11 +808,11 @@
         </is>
       </c>
       <c r="C12" s="2" t="n">
-        <v>117.1067</v>
+        <v>117.1862</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0.61874</v>
+        <v>0.6163</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>189.2664123864628</v>
+        <v>190.1447347071232</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -839,11 +839,11 @@
         </is>
       </c>
       <c r="C13" s="2" t="n">
-        <v>117.1862</v>
+        <v>117.4292</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-03-19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -852,16 +852,16 @@
         </is>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0.6163</v>
+        <v>0.61813</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>190.1447347071232</v>
+        <v>189.9749243686603</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -870,11 +870,11 @@
         </is>
       </c>
       <c r="C14" s="2" t="n">
-        <v>117.4292</v>
+        <v>117.8133</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-03-20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -883,16 +883,16 @@
         </is>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0.61813</v>
+        <v>0.62122</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>189.9749243686603</v>
+        <v>189.6482727536139</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -901,11 +901,11 @@
         </is>
       </c>
       <c r="C15" s="2" t="n">
-        <v>117.8133</v>
+        <v>116.8775</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-03-21</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -914,16 +914,16 @@
         </is>
       </c>
       <c r="F15" s="2" t="n">
-        <v>0.62122</v>
+        <v>0.60963</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>189.6482727536139</v>
+        <v>191.7187474369699</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -932,11 +932,11 @@
         </is>
       </c>
       <c r="C16" s="2" t="n">
-        <v>116.8775</v>
+        <v>117.3206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-03-22</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -945,16 +945,16 @@
         </is>
       </c>
       <c r="F16" s="2" t="n">
-        <v>0.60963</v>
+        <v>0.6113</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>191.7187474369699</v>
+        <v>191.9198429576313</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -963,11 +963,11 @@
         </is>
       </c>
       <c r="C17" s="2" t="n">
-        <v>117.3206</v>
+        <v>116.9072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-03-25</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -976,16 +976,16 @@
         </is>
       </c>
       <c r="F17" s="2" t="n">
-        <v>0.6113</v>
+        <v>0.61287</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>191.9198429576313</v>
+        <v>190.7536671724835</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -994,11 +994,11 @@
         </is>
       </c>
       <c r="C18" s="2" t="n">
-        <v>116.9072</v>
+        <v>117.0605</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-03-26</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="F18" s="2" t="n">
-        <v>0.61287</v>
+        <v>0.61182</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>190.7536671724835</v>
+        <v>191.3316007976202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-03-27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1025,11 +1025,11 @@
         </is>
       </c>
       <c r="C19" s="2" t="n">
-        <v>117.0605</v>
+        <v>116.9251</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-03-27</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1038,16 +1038,16 @@
         </is>
       </c>
       <c r="F19" s="2" t="n">
-        <v>0.61182</v>
+        <v>0.61016</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>191.3316007976202</v>
+        <v>191.6302281368821</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-03-28</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1056,11 +1056,11 @@
         </is>
       </c>
       <c r="C20" s="2" t="n">
-        <v>116.9251</v>
+        <v>116.5187</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-03-28</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1069,16 +1069,16 @@
         </is>
       </c>
       <c r="F20" s="2" t="n">
-        <v>0.61016</v>
+        <v>0.6094000000000001</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>191.6302281368821</v>
+        <v>191.2023301608139</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>2024-03-29</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1087,11 +1087,11 @@
         </is>
       </c>
       <c r="C21" s="2" t="n">
-        <v>116.5187</v>
+        <v>116.649</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>2024-03-29</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1100,40 +1100,9 @@
         </is>
       </c>
       <c r="F21" s="2" t="n">
-        <v>0.6094000000000001</v>
+        <v>0.61068</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>191.2023301608139</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2024-03-29</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>18:49:00</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>116.649</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2024-03-29</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>18:49:00</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="n">
-        <v>0.61068</v>
-      </c>
-      <c r="G22" s="2" t="n">
         <v>191.014934171743</v>
       </c>
     </row>
